--- a/4_Analysis_Excels/QoQ - ifo_naive_ifoCAST.xlsx
+++ b/4_Analysis_Excels/QoQ - ifo_naive_ifoCAST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Analysis_Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/4_Analysis_Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{C8633DC1-0678-44D8-A406-195500882EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C55498E-D3AA-468F-8CA8-FAA0EE7C618D}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{C8633DC1-0678-44D8-A406-195500882EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C0C1366-AA11-4696-8360-52EB6CA122D0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naive - ifo" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ifoCAST -ifo 2021 sample" sheetId="4" r:id="rId5"/>
     <sheet name="ifoCAST - ifo 2022 sample" sheetId="5" r:id="rId6"/>
     <sheet name="ifoCAST long_term" sheetId="3" r:id="rId7"/>
+    <sheet name="ifoCAST full" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="56">
   <si>
     <t>ME</t>
   </si>
@@ -222,6 +223,12 @@
   <si>
     <t>AR2-50/ifoCAST_full</t>
   </si>
+  <si>
+    <t>ifoCAST full</t>
+  </si>
+  <si>
+    <t>ifo judgemental</t>
+  </si>
 </sst>
 </file>
 
@@ -387,7 +394,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="184">
+  <dxfs count="200">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -710,6 +717,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -720,6 +747,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -800,6 +837,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -870,6 +917,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -900,6 +957,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -910,6 +977,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -920,6 +997,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -950,6 +1037,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1000,6 +1097,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1010,6 +1117,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1080,6 +1197,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1110,6 +1237,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1140,6 +1277,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1170,6 +1317,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1180,6 +1337,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1200,6 +1367,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1210,6 +1387,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1290,6 +1487,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1300,6 +1507,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1330,6 +1557,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1340,6 +1577,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1350,6 +1597,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1420,6 +1677,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1450,6 +1717,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1480,6 +1757,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1510,6 +1797,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1520,6 +1817,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1540,6 +1847,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1550,6 +1867,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1630,6 +1967,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1640,6 +1987,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1710,6 +2077,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1780,6 +2157,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1805,226 +2192,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2239,6 +2406,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4299,52 +4470,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C32:G38 AA23:AE30 S26:W29">
-    <cfRule type="cellIs" dxfId="183" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:G38">
-    <cfRule type="cellIs" dxfId="182" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:O38 K39:K41">
-    <cfRule type="cellIs" dxfId="180" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:O38">
-    <cfRule type="cellIs" dxfId="178" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32:W38">
-    <cfRule type="cellIs" dxfId="176" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:W38">
-    <cfRule type="cellIs" dxfId="174" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:AE30 S26:W29 C32:G38">
-    <cfRule type="cellIs" dxfId="172" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6145,53 +6316,53 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C31:G37 S25:W28">
-    <cfRule type="cellIs" dxfId="171" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:G37">
-    <cfRule type="cellIs" dxfId="170" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:O37">
-    <cfRule type="cellIs" dxfId="168" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:O37">
-    <cfRule type="cellIs" dxfId="166" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="6" operator="greaterThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:W28 C31:G37">
+    <cfRule type="cellIs" dxfId="180" priority="11" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:W37">
-    <cfRule type="cellIs" dxfId="164" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:W37">
-    <cfRule type="cellIs" dxfId="162" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:W28 C31:G37">
-    <cfRule type="cellIs" dxfId="160" priority="11" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7946,53 +8117,53 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C31:G37 S25:W28">
-    <cfRule type="cellIs" dxfId="159" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:G37">
-    <cfRule type="cellIs" dxfId="158" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:O37">
-    <cfRule type="cellIs" dxfId="156" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:O37">
-    <cfRule type="cellIs" dxfId="154" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="6" operator="greaterThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:W28 C31:G37">
+    <cfRule type="cellIs" dxfId="168" priority="11" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:W37">
-    <cfRule type="cellIs" dxfId="152" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:W37">
-    <cfRule type="cellIs" dxfId="150" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:W28 C31:G37">
-    <cfRule type="cellIs" dxfId="148" priority="11" operator="lessThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9271,171 +9442,171 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D20:G21">
-    <cfRule type="cellIs" dxfId="147" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="46" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:G39">
-    <cfRule type="cellIs" dxfId="143" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="42" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="44" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="41" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="44" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:G54">
-    <cfRule type="cellIs" dxfId="139" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="38" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="37" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="39" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="40" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:G68">
-    <cfRule type="cellIs" dxfId="135" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="34" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="33" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="36" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:O20">
-    <cfRule type="cellIs" dxfId="131" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:O38">
-    <cfRule type="cellIs" dxfId="127" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="30" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="29" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="32" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:O53">
-    <cfRule type="cellIs" dxfId="123" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67:O67">
-    <cfRule type="cellIs" dxfId="119" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="22" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="21" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="24" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:W21">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:W38">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="9" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53:W53">
-    <cfRule type="cellIs" dxfId="107" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="13" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="16" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67:W67">
-    <cfRule type="cellIs" dxfId="103" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="17" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="20" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10707,171 +10878,171 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D20:G21">
-    <cfRule type="cellIs" dxfId="99" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="47" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="46" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:G39">
-    <cfRule type="cellIs" dxfId="95" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="42" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="44" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="43" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="41" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="44" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53:G54">
-    <cfRule type="cellIs" dxfId="91" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="39" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="38" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="37" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="40" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:G68">
-    <cfRule type="cellIs" dxfId="87" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="36" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="35" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="34" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="33" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="36" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:O20">
-    <cfRule type="cellIs" dxfId="83" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:O38">
-    <cfRule type="cellIs" dxfId="79" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="31" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="32" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="30" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="29" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="31" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="32" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:O53">
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="28" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67:O67">
-    <cfRule type="cellIs" dxfId="71" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="22" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="21" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="24" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:W21">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:W38">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53:W53">
-    <cfRule type="cellIs" dxfId="59" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="13" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="16" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67:W67">
-    <cfRule type="cellIs" dxfId="55" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="17" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -10882,7 +11053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68FB474-FC50-4624-86F7-51C40E4033B2}">
   <dimension ref="B2:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -12142,129 +12313,129 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D38:G39 D53:G54 D67:G68 D20:G21">
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="lessThan">
+  <conditionalFormatting sqref="D20:G21 D38:G39 D53:G54 D67:G68">
+    <cfRule type="cellIs" dxfId="67" priority="48" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="46" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="47" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:O20">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38:O38">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53:O53">
-    <cfRule type="cellIs" dxfId="39" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="28" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67:O67">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="23" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20:W21">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:W38">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="lessThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53:W53">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67:W67">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12277,7 +12448,7 @@
   <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B1" sqref="B1:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12657,6 +12828,446 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K7:N7">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:N11">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:N15">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:N19">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230D8A60-7893-49B4-AB86-ABEB7E22E9BB}">
+  <dimension ref="B2:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0.155486188</v>
+      </c>
+      <c r="D3">
+        <v>0.60472487799999997</v>
+      </c>
+      <c r="E3">
+        <v>0.91985223900000002</v>
+      </c>
+      <c r="F3">
+        <v>0.95908927600000005</v>
+      </c>
+      <c r="G3">
+        <v>0.95685955099999997</v>
+      </c>
+      <c r="H3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2.458820482611912E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.37664673483054878</v>
+      </c>
+      <c r="E7">
+        <v>0.39864716471943967</v>
+      </c>
+      <c r="F7">
+        <v>0.63138511601037894</v>
+      </c>
+      <c r="G7">
+        <v>0.63787771216628031</v>
+      </c>
+      <c r="H7">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <f>D7/$D$3</f>
+        <v>0.62283982110381908</v>
+      </c>
+      <c r="L7">
+        <f>E7/$E$3</f>
+        <v>0.43338174091180276</v>
+      </c>
+      <c r="M7">
+        <f>F7/$F$3</f>
+        <v>0.65831735565186211</v>
+      </c>
+      <c r="N7">
+        <f>G7/$G$3</f>
+        <v>0.6666367195683458</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>-5.6293087362426393E-2</v>
+      </c>
+      <c r="D11">
+        <v>1.1286404467097699</v>
+      </c>
+      <c r="E11">
+        <v>6.0047450604218247</v>
+      </c>
+      <c r="F11">
+        <v>2.4504581327624888</v>
+      </c>
+      <c r="G11">
+        <v>2.4774938156659179</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <f>D11/$D$3</f>
+        <v>1.8663701259364593</v>
+      </c>
+      <c r="L11">
+        <f>E11/$E$3</f>
+        <v>6.5279452566748875</v>
+      </c>
+      <c r="M11">
+        <f>F11/$F$3</f>
+        <v>2.5549843941352637</v>
+      </c>
+      <c r="N11">
+        <f>G11/$G$3</f>
+        <v>2.5891927536039381</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>3.5148316999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.423122695</v>
+      </c>
+      <c r="E15">
+        <v>9.937334559</v>
+      </c>
+      <c r="F15">
+        <v>3.1523538119999999</v>
+      </c>
+      <c r="G15">
+        <v>3.1877765899999999</v>
+      </c>
+      <c r="H15">
+        <v>46</v>
+      </c>
+      <c r="K15">
+        <f>D15/$D$3</f>
+        <v>2.3533390915000525</v>
+      </c>
+      <c r="L15">
+        <f>E15/$E$3</f>
+        <v>10.803185704916244</v>
+      </c>
+      <c r="M15">
+        <f>F15/$F$3</f>
+        <v>3.2868199977662975</v>
+      </c>
+      <c r="N15">
+        <f>G15/$G$3</f>
+        <v>3.3314989505706465</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>8.6614482886102073E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.92706438243894063</v>
+      </c>
+      <c r="E19">
+        <v>4.4287990520643836</v>
+      </c>
+      <c r="F19">
+        <v>2.104471204855126</v>
+      </c>
+      <c r="G19">
+        <v>2.1264479786181418</v>
+      </c>
+      <c r="H19">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <f>D19/$D$3</f>
+        <v>1.5330349654292554</v>
+      </c>
+      <c r="L19">
+        <f>E19/$E$3</f>
+        <v>4.8146852986726092</v>
+      </c>
+      <c r="M19">
+        <f>F19/$F$3</f>
+        <v>2.194239115707854</v>
+      </c>
+      <c r="N19">
+        <f>G19/$G$3</f>
+        <v>2.2223198549837559</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K7:N7">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
